--- a/trunk/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f503_thong_ke_hv_tuyen_moi.xlsx
+++ b/trunk/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f503_thong_ke_hv_tuyen_moi.xlsx
@@ -48,13 +48,13 @@
     <t>Đơn vị TK</t>
   </si>
   <si>
-    <t>Từ tháng  &lt;tu_ngay&gt;  Đến tháng &lt;den_ngay&gt;</t>
-  </si>
-  <si>
     <t>Giá trị TK</t>
   </si>
   <si>
     <t>THỐNG KÊ HỌC VIÊN TUYỂN MỚI</t>
+  </si>
+  <si>
+    <t>Từ ngày  &lt;tu_ngay&gt;  Đến ngày &lt;den_ngay&gt;</t>
   </si>
 </sst>
 </file>
@@ -188,6 +188,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -199,9 +202,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -481,7 +481,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,7 +492,7 @@
   <dimension ref="A1:J348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,66 +516,66 @@
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>10</v>
+      <c r="J5" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">

--- a/trunk/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f503_thong_ke_hv_tuyen_moi.xlsx
+++ b/trunk/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f503_thong_ke_hv_tuyen_moi.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>STT</t>
   </si>
@@ -30,31 +30,19 @@
     <t>Tên TT</t>
   </si>
   <si>
-    <t>Loại TK</t>
-  </si>
-  <si>
-    <t>Tên Thống kê</t>
-  </si>
-  <si>
-    <t>Loại thời gian</t>
-  </si>
-  <si>
     <t>Từ ngày</t>
   </si>
   <si>
     <t>Đến ngày</t>
   </si>
   <si>
-    <t>Đơn vị TK</t>
-  </si>
-  <si>
-    <t>Giá trị TK</t>
-  </si>
-  <si>
     <t>THỐNG KÊ HỌC VIÊN TUYỂN MỚI</t>
   </si>
   <si>
-    <t>Từ ngày  &lt;tu_ngay&gt;  Đến ngày &lt;den_ngay&gt;</t>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                             Từ ngày  &lt;tu_ngay&gt;  Đến ngày &lt;den_ngay&gt;</t>
   </si>
 </sst>
 </file>
@@ -170,15 +158,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -200,8 +185,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -489,1157 +480,1145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J348"/>
+  <dimension ref="A1:I348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
     <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
     <col min="10" max="10" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>10</v>
+    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="11" t="s">
-        <v>11</v>
+    <row r="3" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>7</v>
       </c>
+      <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="3"/>
     </row>
     <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="3"/>
     </row>
     <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3"/>
     </row>
     <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="3"/>
     </row>
     <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="3"/>
     </row>
     <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="3"/>
     </row>
     <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="3"/>
     </row>
     <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="3"/>
     </row>
     <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="3"/>
     </row>
     <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="3"/>
     </row>
     <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+      <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="3"/>
     </row>
     <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="A34" s="3"/>
     </row>
     <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+      <c r="A35" s="3"/>
     </row>
     <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
+      <c r="A36" s="3"/>
     </row>
     <row r="37" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+      <c r="A37" s="3"/>
     </row>
     <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+      <c r="A38" s="3"/>
     </row>
     <row r="39" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
+      <c r="A39" s="3"/>
     </row>
     <row r="40" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
+      <c r="A40" s="3"/>
     </row>
     <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+      <c r="A41" s="3"/>
     </row>
     <row r="42" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
+      <c r="A42" s="3"/>
     </row>
     <row r="43" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
+      <c r="A43" s="3"/>
     </row>
     <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="A44" s="3"/>
     </row>
     <row r="45" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+      <c r="A45" s="3"/>
     </row>
     <row r="46" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
+      <c r="A46" s="3"/>
     </row>
     <row r="47" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
+      <c r="A47" s="3"/>
     </row>
     <row r="48" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
+      <c r="A48" s="3"/>
     </row>
     <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
+      <c r="A49" s="3"/>
     </row>
     <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
+      <c r="A50" s="3"/>
     </row>
     <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
+      <c r="A51" s="3"/>
     </row>
     <row r="52" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
+      <c r="A52" s="3"/>
     </row>
     <row r="53" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
+      <c r="A53" s="3"/>
     </row>
     <row r="54" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
+      <c r="A54" s="3"/>
     </row>
     <row r="55" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
+      <c r="A55" s="3"/>
     </row>
     <row r="56" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
+      <c r="A56" s="3"/>
     </row>
     <row r="57" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
+      <c r="A57" s="3"/>
     </row>
     <row r="58" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
+      <c r="A58" s="3"/>
     </row>
     <row r="59" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
+      <c r="A59" s="3"/>
     </row>
     <row r="60" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
+      <c r="A60" s="3"/>
     </row>
     <row r="61" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
+      <c r="A61" s="3"/>
     </row>
     <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
+      <c r="A62" s="3"/>
     </row>
     <row r="63" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
+      <c r="A63" s="3"/>
     </row>
     <row r="64" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
+      <c r="A64" s="3"/>
     </row>
     <row r="65" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
+      <c r="A65" s="3"/>
     </row>
     <row r="66" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
+      <c r="A66" s="3"/>
     </row>
     <row r="67" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
+      <c r="A67" s="3"/>
     </row>
     <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
+      <c r="A68" s="3"/>
     </row>
     <row r="69" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
+      <c r="A69" s="3"/>
     </row>
     <row r="70" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
+      <c r="A70" s="3"/>
     </row>
     <row r="71" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
+      <c r="A71" s="3"/>
     </row>
     <row r="72" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
+      <c r="A72" s="3"/>
     </row>
     <row r="73" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
+      <c r="A73" s="3"/>
     </row>
     <row r="74" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
+      <c r="A74" s="3"/>
     </row>
     <row r="75" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
+      <c r="A75" s="3"/>
     </row>
     <row r="76" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
+      <c r="A76" s="3"/>
     </row>
     <row r="77" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
+      <c r="A77" s="3"/>
     </row>
     <row r="78" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
+      <c r="A78" s="3"/>
     </row>
     <row r="79" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
+      <c r="A79" s="3"/>
     </row>
     <row r="80" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
+      <c r="A80" s="3"/>
     </row>
     <row r="81" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
+      <c r="A81" s="3"/>
     </row>
     <row r="82" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
+      <c r="A82" s="3"/>
     </row>
     <row r="83" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
+      <c r="A83" s="3"/>
     </row>
     <row r="84" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
+      <c r="A84" s="3"/>
     </row>
     <row r="85" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
+      <c r="A85" s="3"/>
     </row>
     <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
+      <c r="A86" s="3"/>
     </row>
     <row r="87" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
+      <c r="A87" s="3"/>
     </row>
     <row r="88" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
+      <c r="A88" s="3"/>
     </row>
     <row r="89" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
+      <c r="A89" s="3"/>
     </row>
     <row r="90" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
+      <c r="A90" s="3"/>
     </row>
     <row r="91" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
+      <c r="A91" s="3"/>
     </row>
     <row r="92" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
+      <c r="A92" s="3"/>
     </row>
     <row r="93" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
+      <c r="A93" s="3"/>
     </row>
     <row r="94" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
+      <c r="A94" s="3"/>
     </row>
     <row r="95" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
+      <c r="A95" s="3"/>
     </row>
     <row r="96" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
+      <c r="A96" s="3"/>
     </row>
     <row r="97" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
+      <c r="A97" s="3"/>
     </row>
     <row r="98" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
+      <c r="A98" s="3"/>
     </row>
     <row r="99" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
+      <c r="A99" s="3"/>
     </row>
     <row r="100" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
+      <c r="A100" s="3"/>
     </row>
     <row r="101" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
+      <c r="A101" s="3"/>
     </row>
     <row r="102" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
+      <c r="A102" s="3"/>
     </row>
     <row r="103" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
+      <c r="A103" s="3"/>
     </row>
     <row r="104" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
+      <c r="A104" s="3"/>
     </row>
     <row r="105" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
+      <c r="A105" s="3"/>
     </row>
     <row r="106" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
+      <c r="A106" s="3"/>
     </row>
     <row r="107" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
+      <c r="A107" s="3"/>
     </row>
     <row r="108" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
+      <c r="A108" s="3"/>
     </row>
     <row r="109" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
+      <c r="A109" s="3"/>
     </row>
     <row r="110" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
+      <c r="A110" s="3"/>
     </row>
     <row r="111" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
+      <c r="A111" s="3"/>
     </row>
     <row r="112" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
+      <c r="A112" s="3"/>
     </row>
     <row r="113" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
+      <c r="A113" s="3"/>
     </row>
     <row r="114" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
+      <c r="A114" s="3"/>
     </row>
     <row r="115" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
+      <c r="A115" s="3"/>
     </row>
     <row r="116" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
+      <c r="A116" s="3"/>
     </row>
     <row r="117" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
+      <c r="A117" s="3"/>
     </row>
     <row r="118" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
+      <c r="A118" s="3"/>
     </row>
     <row r="119" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
+      <c r="A119" s="3"/>
     </row>
     <row r="120" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
+      <c r="A120" s="3"/>
     </row>
     <row r="121" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
+      <c r="A121" s="3"/>
     </row>
     <row r="122" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
+      <c r="A122" s="3"/>
     </row>
     <row r="123" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
+      <c r="A123" s="3"/>
     </row>
     <row r="124" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
+      <c r="A124" s="3"/>
     </row>
     <row r="125" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="4"/>
+      <c r="A125" s="3"/>
     </row>
     <row r="126" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
+      <c r="A126" s="3"/>
     </row>
     <row r="127" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
+      <c r="A127" s="3"/>
     </row>
     <row r="128" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="4"/>
+      <c r="A128" s="3"/>
     </row>
     <row r="129" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="4"/>
+      <c r="A129" s="3"/>
     </row>
     <row r="130" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
+      <c r="A130" s="3"/>
     </row>
     <row r="131" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="4"/>
+      <c r="A131" s="3"/>
     </row>
     <row r="132" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="4"/>
+      <c r="A132" s="3"/>
     </row>
     <row r="133" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
+      <c r="A133" s="3"/>
     </row>
     <row r="134" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
+      <c r="A134" s="3"/>
     </row>
     <row r="135" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
+      <c r="A135" s="3"/>
     </row>
     <row r="136" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
+      <c r="A136" s="3"/>
     </row>
     <row r="137" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="4"/>
+      <c r="A137" s="3"/>
     </row>
     <row r="138" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="4"/>
+      <c r="A138" s="3"/>
     </row>
     <row r="139" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="4"/>
+      <c r="A139" s="3"/>
     </row>
     <row r="140" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="4"/>
+      <c r="A140" s="3"/>
     </row>
     <row r="141" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="4"/>
+      <c r="A141" s="3"/>
     </row>
     <row r="142" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
+      <c r="A142" s="3"/>
     </row>
     <row r="143" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
+      <c r="A143" s="3"/>
     </row>
     <row r="144" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="4"/>
+      <c r="A144" s="3"/>
     </row>
     <row r="145" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="4"/>
+      <c r="A145" s="3"/>
     </row>
     <row r="146" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="4"/>
+      <c r="A146" s="3"/>
     </row>
     <row r="147" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="4"/>
+      <c r="A147" s="3"/>
     </row>
     <row r="148" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="4"/>
+      <c r="A148" s="3"/>
     </row>
     <row r="149" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="4"/>
+      <c r="A149" s="3"/>
     </row>
     <row r="150" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="4"/>
+      <c r="A150" s="3"/>
     </row>
     <row r="151" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="4"/>
+      <c r="A151" s="3"/>
     </row>
     <row r="152" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="4"/>
+      <c r="A152" s="3"/>
     </row>
     <row r="153" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="4"/>
+      <c r="A153" s="3"/>
     </row>
     <row r="154" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="4"/>
+      <c r="A154" s="3"/>
     </row>
     <row r="155" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="4"/>
+      <c r="A155" s="3"/>
     </row>
     <row r="156" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="4"/>
+      <c r="A156" s="3"/>
     </row>
     <row r="157" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="4"/>
+      <c r="A157" s="3"/>
     </row>
     <row r="158" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="4"/>
+      <c r="A158" s="3"/>
     </row>
     <row r="159" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="4"/>
+      <c r="A159" s="3"/>
     </row>
     <row r="160" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="4"/>
+      <c r="A160" s="3"/>
     </row>
     <row r="161" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="4"/>
+      <c r="A161" s="3"/>
     </row>
     <row r="162" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="4"/>
+      <c r="A162" s="3"/>
     </row>
     <row r="163" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="4"/>
+      <c r="A163" s="3"/>
     </row>
     <row r="164" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="4"/>
+      <c r="A164" s="3"/>
     </row>
     <row r="165" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="4"/>
+      <c r="A165" s="3"/>
     </row>
     <row r="166" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="4"/>
+      <c r="A166" s="3"/>
     </row>
     <row r="167" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="4"/>
+      <c r="A167" s="3"/>
     </row>
     <row r="168" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="4"/>
+      <c r="A168" s="3"/>
     </row>
     <row r="169" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="4"/>
+      <c r="A169" s="3"/>
     </row>
     <row r="170" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="4"/>
+      <c r="A170" s="3"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="6"/>
+      <c r="A171" s="5"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="6"/>
+      <c r="A172" s="5"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="6"/>
+      <c r="A173" s="5"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="6"/>
+      <c r="A174" s="5"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="6"/>
+      <c r="A175" s="5"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="6"/>
+      <c r="A176" s="5"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="6"/>
+      <c r="A177" s="5"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="6"/>
+      <c r="A178" s="5"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="6"/>
+      <c r="A179" s="5"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="6"/>
+      <c r="A180" s="5"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="6"/>
+      <c r="A181" s="5"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="6"/>
+      <c r="A182" s="5"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="6"/>
+      <c r="A183" s="5"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="6"/>
+      <c r="A184" s="5"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="6"/>
+      <c r="A185" s="5"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="6"/>
+      <c r="A186" s="5"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="6"/>
+      <c r="A187" s="5"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="6"/>
+      <c r="A188" s="5"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="6"/>
+      <c r="A189" s="5"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="6"/>
+      <c r="A190" s="5"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="6"/>
+      <c r="A191" s="5"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="6"/>
+      <c r="A192" s="5"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="6"/>
+      <c r="A193" s="5"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="6"/>
+      <c r="A194" s="5"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="6"/>
+      <c r="A195" s="5"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="6"/>
+      <c r="A196" s="5"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="6"/>
+      <c r="A197" s="5"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="6"/>
+      <c r="A198" s="5"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="6"/>
+      <c r="A199" s="5"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="6"/>
+      <c r="A200" s="5"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="6"/>
+      <c r="A201" s="5"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="6"/>
+      <c r="A202" s="5"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="6"/>
+      <c r="A203" s="5"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="6"/>
+      <c r="A204" s="5"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="6"/>
+      <c r="A205" s="5"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="6"/>
+      <c r="A206" s="5"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="6"/>
+      <c r="A207" s="5"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="6"/>
+      <c r="A208" s="5"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="6"/>
+      <c r="A209" s="5"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="6"/>
+      <c r="A210" s="5"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="6"/>
+      <c r="A211" s="5"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="6"/>
+      <c r="A212" s="5"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="6"/>
+      <c r="A213" s="5"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="6"/>
+      <c r="A214" s="5"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="6"/>
+      <c r="A215" s="5"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="6"/>
+      <c r="A216" s="5"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="6"/>
+      <c r="A217" s="5"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="6"/>
+      <c r="A218" s="5"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="6"/>
+      <c r="A219" s="5"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="6"/>
+      <c r="A220" s="5"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="6"/>
+      <c r="A221" s="5"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="6"/>
+      <c r="A222" s="5"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="6"/>
+      <c r="A223" s="5"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="6"/>
+      <c r="A224" s="5"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="6"/>
+      <c r="A225" s="5"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="6"/>
+      <c r="A226" s="5"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="6"/>
+      <c r="A227" s="5"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="6"/>
+      <c r="A228" s="5"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="6"/>
+      <c r="A229" s="5"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="6"/>
+      <c r="A230" s="5"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="6"/>
+      <c r="A231" s="5"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="6"/>
+      <c r="A232" s="5"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="6"/>
+      <c r="A233" s="5"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="6"/>
+      <c r="A234" s="5"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="6"/>
+      <c r="A235" s="5"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="6"/>
+      <c r="A236" s="5"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="6"/>
+      <c r="A237" s="5"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="6"/>
+      <c r="A238" s="5"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="6"/>
+      <c r="A239" s="5"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="6"/>
+      <c r="A240" s="5"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="6"/>
+      <c r="A241" s="5"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="6"/>
+      <c r="A242" s="5"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="6"/>
+      <c r="A243" s="5"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="6"/>
+      <c r="A244" s="5"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="6"/>
+      <c r="A245" s="5"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="6"/>
+      <c r="A246" s="5"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="6"/>
+      <c r="A247" s="5"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="6"/>
+      <c r="A248" s="5"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="6"/>
+      <c r="A249" s="5"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="6"/>
+      <c r="A250" s="5"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="6"/>
+      <c r="A251" s="5"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="6"/>
+      <c r="A252" s="5"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="6"/>
+      <c r="A253" s="5"/>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="6"/>
+      <c r="A254" s="5"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="6"/>
+      <c r="A255" s="5"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="6"/>
+      <c r="A256" s="5"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="6"/>
+      <c r="A257" s="5"/>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="6"/>
+      <c r="A258" s="5"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="6"/>
+      <c r="A259" s="5"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="6"/>
+      <c r="A260" s="5"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="6"/>
+      <c r="A261" s="5"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="6"/>
+      <c r="A262" s="5"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="6"/>
+      <c r="A263" s="5"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="6"/>
+      <c r="A264" s="5"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="6"/>
+      <c r="A265" s="5"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="6"/>
+      <c r="A266" s="5"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="6"/>
+      <c r="A267" s="5"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="6"/>
+      <c r="A268" s="5"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="6"/>
+      <c r="A269" s="5"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="6"/>
+      <c r="A270" s="5"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="6"/>
+      <c r="A271" s="5"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="6"/>
+      <c r="A272" s="5"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="6"/>
+      <c r="A273" s="5"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="6"/>
+      <c r="A274" s="5"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="6"/>
+      <c r="A275" s="5"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="6"/>
+      <c r="A276" s="5"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="6"/>
+      <c r="A277" s="5"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="6"/>
+      <c r="A278" s="5"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="6"/>
+      <c r="A279" s="5"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="6"/>
+      <c r="A280" s="5"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="6"/>
+      <c r="A281" s="5"/>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="6"/>
+      <c r="A282" s="5"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="6"/>
+      <c r="A283" s="5"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="6"/>
+      <c r="A284" s="5"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="6"/>
+      <c r="A285" s="5"/>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="6"/>
+      <c r="A286" s="5"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="6"/>
+      <c r="A287" s="5"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="6"/>
+      <c r="A288" s="5"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="6"/>
+      <c r="A289" s="5"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="6"/>
+      <c r="A290" s="5"/>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="6"/>
+      <c r="A291" s="5"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="6"/>
+      <c r="A292" s="5"/>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="6"/>
+      <c r="A293" s="5"/>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="6"/>
+      <c r="A294" s="5"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="6"/>
+      <c r="A295" s="5"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="6"/>
+      <c r="A296" s="5"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="6"/>
+      <c r="A297" s="5"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="6"/>
+      <c r="A298" s="5"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="6"/>
+      <c r="A299" s="5"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="6"/>
+      <c r="A300" s="5"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="6"/>
+      <c r="A301" s="5"/>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="6"/>
+      <c r="A302" s="5"/>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="6"/>
+      <c r="A303" s="5"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="6"/>
+      <c r="A304" s="5"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="6"/>
+      <c r="A305" s="5"/>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="6"/>
+      <c r="A306" s="5"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="6"/>
+      <c r="A307" s="5"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="6"/>
+      <c r="A308" s="5"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="6"/>
+      <c r="A309" s="5"/>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="6"/>
+      <c r="A310" s="5"/>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="6"/>
+      <c r="A311" s="5"/>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="6"/>
+      <c r="A312" s="5"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="6"/>
+      <c r="A313" s="5"/>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="6"/>
+      <c r="A314" s="5"/>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="6"/>
+      <c r="A315" s="5"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="6"/>
+      <c r="A316" s="5"/>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="6"/>
+      <c r="A317" s="5"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="6"/>
+      <c r="A318" s="5"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="6"/>
+      <c r="A319" s="5"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="6"/>
+      <c r="A320" s="5"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="6"/>
+      <c r="A321" s="5"/>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="6"/>
+      <c r="A322" s="5"/>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="6"/>
+      <c r="A323" s="5"/>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="6"/>
+      <c r="A324" s="5"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="6"/>
+      <c r="A325" s="5"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="6"/>
+      <c r="A326" s="5"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="6"/>
+      <c r="A327" s="5"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="6"/>
+      <c r="A328" s="5"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="6"/>
+      <c r="A329" s="5"/>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="6"/>
+      <c r="A330" s="5"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="6"/>
+      <c r="A331" s="5"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="6"/>
+      <c r="A332" s="5"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="6"/>
+      <c r="A333" s="5"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="6"/>
+      <c r="A334" s="5"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="6"/>
+      <c r="A335" s="5"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="6"/>
+      <c r="A336" s="5"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="6"/>
+      <c r="A337" s="5"/>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="6"/>
+      <c r="A338" s="5"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="6"/>
+      <c r="A339" s="5"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="6"/>
+      <c r="A340" s="5"/>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="6"/>
+      <c r="A341" s="5"/>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="6"/>
+      <c r="A342" s="5"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="6"/>
+      <c r="A343" s="5"/>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="6"/>
+      <c r="A344" s="5"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="6"/>
+      <c r="A345" s="5"/>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="6"/>
+      <c r="A346" s="5"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="6"/>
+      <c r="A347" s="5"/>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="6"/>
+      <c r="A348" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
